--- a/mb-pls/Clusters_km3.xlsx
+++ b/mb-pls/Clusters_km3.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,60 +404,60 @@
         <v>56.81818181818182</v>
       </c>
       <c r="C2">
-        <v>96.15384615384616</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="D2">
         <v>44</v>
       </c>
       <c r="E2">
-        <v>1.157183225690788E-10</v>
+        <v>1.192414952034687E-09</v>
       </c>
       <c r="F2">
-        <v>6.444845386728928</v>
+        <v>6.081260342412061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>y=ENG_malade</t>
+          <t>X19x2_ABB_E=1</t>
         </is>
       </c>
       <c r="B3">
-        <v>55.00000000000001</v>
+        <v>45.61403508771929</v>
       </c>
       <c r="C3">
-        <v>84.61538461538461</v>
+        <v>96.29629629629629</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="E3">
-        <v>8.803689957146497E-08</v>
+        <v>2.887110248164469E-07</v>
       </c>
       <c r="F3">
-        <v>5.34982998191404</v>
+        <v>5.130671077968848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=1</t>
+          <t>y=ENG_malade</t>
         </is>
       </c>
       <c r="B4">
-        <v>43.85964912280701</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="C4">
-        <v>96.15384615384616</v>
+        <v>81.48148148148148</v>
       </c>
       <c r="D4">
-        <v>56.99999999999999</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>6.452620584281631E-07</v>
+        <v>3.704129690990083E-07</v>
       </c>
       <c r="F4">
-        <v>4.977153332204331</v>
+        <v>5.08356641772829</v>
       </c>
     </row>
     <row r="5">
@@ -470,16 +470,16 @@
         <v>58.62068965517241</v>
       </c>
       <c r="C5">
-        <v>65.38461538461539</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="D5">
         <v>29</v>
       </c>
       <c r="E5">
-        <v>6.657358598212842E-06</v>
+        <v>1.54221085067256E-05</v>
       </c>
       <c r="F5">
-        <v>4.504358987622347</v>
+        <v>4.322571492868023</v>
       </c>
     </row>
     <row r="6">
@@ -492,16 +492,16 @@
         <v>42.5</v>
       </c>
       <c r="C6">
-        <v>65.38461538461539</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6">
-        <v>0.002871308478814784</v>
+        <v>0.005650955393787084</v>
       </c>
       <c r="F6">
-        <v>2.981189721749447</v>
+        <v>2.767375909641903</v>
       </c>
     </row>
     <row r="7">
@@ -514,280 +514,324 @@
         <v>56.25</v>
       </c>
       <c r="C7">
-        <v>34.61538461538461</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>0.005842674257504656</v>
+        <v>0.008129229117043439</v>
       </c>
       <c r="F7">
-        <v>2.756482480378024</v>
+        <v>2.646654791296476</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T13_ENG_milieuDegrad.x=1</t>
+          <t>X07x1_AN_CONST4_mean_3=1</t>
         </is>
       </c>
       <c r="B8">
-        <v>36.73469387755102</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>69.23076923076923</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>0.01851390433493084</v>
+        <v>0.009914331392713674</v>
       </c>
       <c r="F8">
-        <v>2.355176605469082</v>
+        <v>2.578802981914948</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=0</t>
+          <t>T13_ENG_milieuDegrad.x=1</t>
         </is>
       </c>
       <c r="B9">
-        <v>38.09523809523809</v>
+        <v>38.77551020408163</v>
       </c>
       <c r="C9">
-        <v>61.53846153846154</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>0.02256185384813015</v>
+        <v>0.01054772547287458</v>
       </c>
       <c r="F9">
-        <v>2.280773490198372</v>
+        <v>2.557336086449314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>X07x1_AN_CONST4_mean_3=1</t>
+          <t>T10_PS_EauDebi_3=0</t>
         </is>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>40.47619047619047</v>
       </c>
       <c r="C10">
-        <v>42.30769230769231</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>0.02512872641058093</v>
+        <v>0.01193910719125799</v>
       </c>
       <c r="F10">
-        <v>2.239418074579437</v>
+        <v>2.513939031178025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>y=Sain</t>
+          <t>T16_BS_TenueSpeciElev=0</t>
         </is>
       </c>
       <c r="B11">
-        <v>10.3448275862069</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="C11">
-        <v>11.53846153846154</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>0.02087031925499781</v>
+        <v>0.03751427669587878</v>
       </c>
       <c r="F11">
-        <v>-2.310322263337401</v>
+        <v>2.080122736008406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T13_ENG_milieuDegrad.x=0</t>
+          <t>T16_BS_TenueSpeciElev=1</t>
         </is>
       </c>
       <c r="B12">
-        <v>15.68627450980392</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="C12">
-        <v>30.76923076923077</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E12">
-        <v>0.01851390433493082</v>
+        <v>0.03751427669587881</v>
       </c>
       <c r="F12">
-        <v>-2.355176605469082</v>
+        <v>-2.080122736008406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=1</t>
+          <t>y=Sain</t>
         </is>
       </c>
       <c r="B13">
-        <v>11.9047619047619</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="C13">
-        <v>19.23076923076923</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>0.006186046513050357</v>
+        <v>0.0148846488079683</v>
       </c>
       <c r="F13">
-        <v>-2.737753279200806</v>
+        <v>-2.435173547790935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LR_LRF=0</t>
+          <t>T13_ENG_milieuDegrad.x=0</t>
         </is>
       </c>
       <c r="B14">
-        <v>20.23809523809524</v>
+        <v>15.68627450980392</v>
       </c>
       <c r="C14">
-        <v>65.38461538461539</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>0.005842674257504653</v>
+        <v>0.01054772547287457</v>
       </c>
       <c r="F14">
-        <v>-2.756482480378025</v>
+        <v>-2.557336086449314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>y=PS_malade</t>
+          <t>LR_LRF=0</t>
         </is>
       </c>
       <c r="B15">
-        <v>3.225806451612903</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="C15">
-        <v>3.846153846153846</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E15">
-        <v>0.0002039820598635737</v>
+        <v>0.008129229117043437</v>
       </c>
       <c r="F15">
-        <v>-3.714033145168537</v>
+        <v>-2.646654791296476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=0</t>
+          <t>T10_PS_EauDebi_3=1</t>
         </is>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>0.0001445618381906774</v>
+        <v>0.003691866360208416</v>
       </c>
       <c r="F16">
-        <v>-3.800230021846614</v>
+        <v>-2.903356060174315</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENG_TROU=0</t>
+          <t>y=PS_malade</t>
         </is>
       </c>
       <c r="B17">
-        <v>12.67605633802817</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="C17">
-        <v>34.61538461538461</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>6.657358598212853E-06</v>
+        <v>0.001245272303602117</v>
       </c>
       <c r="F17">
-        <v>-4.504358987622347</v>
+        <v>-3.228302463381284</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=0</t>
+          <t>X12x2_MAT1FRLAV_1=0</t>
         </is>
       </c>
       <c r="B18">
-        <v>2.325581395348837</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>6.452620584281631E-07</v>
+        <v>9.572337934247572E-05</v>
       </c>
       <c r="F18">
-        <v>-4.977153332204331</v>
+        <v>-3.901183942027533</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>ENG_TROU=0</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>14.08450704225352</v>
+      </c>
+      <c r="C19">
+        <v>37.03703703703704</v>
+      </c>
+      <c r="D19">
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>1.542210850672559E-05</v>
+      </c>
+      <c r="F19">
+        <v>-4.322571492868023</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>X19x2_ABB_E=0</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>2.325581395348837</v>
+      </c>
+      <c r="C20">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>2.887110248164466E-07</v>
+      </c>
+      <c r="F20">
+        <v>-5.130671077968848</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>X18x2_ABBTX_PS=0</t>
         </is>
       </c>
-      <c r="B19">
-        <v>1.785714285714286</v>
-      </c>
-      <c r="C19">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="D19">
+      <c r="B21">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="C21">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="D21">
         <v>56.00000000000001</v>
       </c>
-      <c r="E19">
-        <v>1.157183225690788E-10</v>
-      </c>
-      <c r="F19">
-        <v>-6.444845386728928</v>
+      <c r="E21">
+        <v>1.192414952034685E-09</v>
+      </c>
+      <c r="F21">
+        <v>-6.081260342412061</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +840,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cla/Mod</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mod/Cla</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>v.test</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>y=PS_malade</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>38.70967741935484</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>3.315250320582766E-05</v>
+      </c>
+      <c r="F2">
+        <v>4.150655093067986</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>X18x2_ABBTX_PS=1</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>0.00299152518444452</v>
+      </c>
+      <c r="F3">
+        <v>2.968607422014104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>X09x3_FAB_CROISS_reg_rec=1</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0.00390936752623039</v>
+      </c>
+      <c r="F4">
+        <v>2.885383796858688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X06x1_gene_majo_1_rec=1</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>0.03214680346186717</v>
+      </c>
+      <c r="F5">
+        <v>2.142580436358246</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>X12x2_MAT_PC=2</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>20.63492063492063</v>
+      </c>
+      <c r="C6">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>0.03940537872894717</v>
+      </c>
+      <c r="F6">
+        <v>2.05992847837561</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>X07x1_AN_CONST4_mean_3=0</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="C7">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>0.04752878386096662</v>
+      </c>
+      <c r="F7">
+        <v>-1.981557535542503</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>X12x2_MAT_PC=1</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5.405405405405405</v>
+      </c>
+      <c r="C8">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>0.03940537872894719</v>
+      </c>
+      <c r="F8">
+        <v>-2.05992847837561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>X06x1_gene_majo_1_rec=0</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0.03214680346186717</v>
+      </c>
+      <c r="F9">
+        <v>-2.142580436358246</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>X12x2_MAT1FRLAV_1=1</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="C10">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>0.01006356809150925</v>
+      </c>
+      <c r="F10">
+        <v>-2.573637395333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>X09x3_FAB_CROISS_reg_rec=0</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>5.454545454545454</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.003909367526230388</v>
+      </c>
+      <c r="F11">
+        <v>-2.88538379685869</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>y=Sain</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>0.003610720647738941</v>
+      </c>
+      <c r="F12">
+        <v>-2.910308583071963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>X18x2_ABBTX_PS=0</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>5.357142857142857</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.00299152518444452</v>
+      </c>
+      <c r="F13">
+        <v>-2.968607422014104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1126,7 +1479,228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cla/Mod</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mod/Cla</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>v.test</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>X19x2_ABB_E=0</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>37.2093023255814</v>
+      </c>
+      <c r="C2">
+        <v>94.11764705882352</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>2.39960934745582E-06</v>
+      </c>
+      <c r="F2">
+        <v>4.716479158959515</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>X18x2_ABBTX_PS=0</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>30.35714285714285</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.473617236555638E-05</v>
+      </c>
+      <c r="F3">
+        <v>4.332595475816769</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>X06x1_gene_majo_1_rec=0</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>36.84210526315789</v>
+      </c>
+      <c r="C4">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.02116077289999931</v>
+      </c>
+      <c r="F4">
+        <v>2.305103582658212</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>T10_PS_EauDebi_3=2</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>37.5</v>
+      </c>
+      <c r="C5">
+        <v>35.29411764705883</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0.03345251921320083</v>
+      </c>
+      <c r="F5">
+        <v>2.126609780117569</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>T10_PS_EauDebi_3=1</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="C6">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>0.02628318642585154</v>
+      </c>
+      <c r="F6">
+        <v>-2.222001763444923</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>X06x1_gene_majo_1_rec=1</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>12.34567901234568</v>
+      </c>
+      <c r="C7">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>0.02116077289999931</v>
+      </c>
+      <c r="F7">
+        <v>-2.305103582658212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>X18x2_ABBTX_PS=1</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1.473617236555638E-05</v>
+      </c>
+      <c r="F8">
+        <v>-4.332595475816769</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>X19x2_ABB_E=1</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="C9">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="D9">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="E9">
+        <v>2.399609347455818E-06</v>
+      </c>
+      <c r="F9">
+        <v>-4.716479158959515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1501,272 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cla/Mod</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mod/Cla</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>v.test</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>X18x2_ABBTX_PS=0</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>37.5</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="E2">
-        <v>6.595840887884186E-07</v>
-      </c>
-      <c r="F2">
-        <v>4.972900823686963</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>X19x2_ABB_E=0</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>39.53488372093023</v>
-      </c>
-      <c r="C3">
-        <v>80.95238095238095</v>
-      </c>
-      <c r="D3">
-        <v>43</v>
-      </c>
-      <c r="E3">
-        <v>0.0001002207615627556</v>
-      </c>
-      <c r="F3">
-        <v>3.890056798601356</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>X06x1_gene_majo_1_rec=0</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>42.10526315789473</v>
-      </c>
-      <c r="C4">
-        <v>38.09523809523809</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0.0215447748431672</v>
-      </c>
-      <c r="F4">
-        <v>2.298299043840113</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A03_Pos10sVERS=1</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>34.28571428571428</v>
-      </c>
-      <c r="C5">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>0.02224386270865081</v>
-      </c>
-      <c r="F5">
-        <v>2.286177735989301</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>T10_PS_EauDebi_3=2</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>43.75</v>
-      </c>
-      <c r="C6">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>0.02709517991749602</v>
-      </c>
-      <c r="F6">
-        <v>2.21014385723534</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A03_Pos10sVERS=0</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>13.84615384615385</v>
-      </c>
-      <c r="C7">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>0.02224386270865079</v>
-      </c>
-      <c r="F7">
-        <v>-2.286177735989301</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>X06x1_gene_majo_1_rec=1</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>16.04938271604938</v>
-      </c>
-      <c r="C8">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="D8">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <v>0.02154477484316721</v>
-      </c>
-      <c r="F8">
-        <v>-2.298299043840113</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>T10_PS_EauDebi_3=1</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="C9">
-        <v>19.04761904761905</v>
-      </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
-      <c r="E9">
-        <v>0.01676726860885511</v>
-      </c>
-      <c r="F9">
-        <v>-2.391771696654048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>X19x2_ABB_E=1</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>7.017543859649122</v>
-      </c>
-      <c r="C10">
-        <v>19.04761904761905</v>
-      </c>
-      <c r="D10">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.0001002207615627555</v>
-      </c>
-      <c r="F10">
-        <v>-3.890056798601356</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>X18x2_ABBTX_PS=1</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>6.595840887884186E-07</v>
-      </c>
-      <c r="F11">
-        <v>-4.972900823686963</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1809,45 +2118,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=0</t>
+          <t>X18x2_ABBTX_PS=0</t>
         </is>
       </c>
       <c r="B2">
-        <v>30.23255813953488</v>
+        <v>30.35714285714285</v>
       </c>
       <c r="C2">
-        <v>92.85714285714286</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E2">
-        <v>5.073078449137394E-05</v>
+        <v>1.473617236555638E-05</v>
       </c>
       <c r="F2">
-        <v>4.052234474148898</v>
+        <v>4.332595475816769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=0</t>
+          <t>X19x2_ABB_E=0</t>
         </is>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>32.55813953488372</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D3">
-        <v>56.00000000000001</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>0.0001313675853563623</v>
+        <v>0.0004222671843910003</v>
       </c>
       <c r="F3">
-        <v>3.823880534594273</v>
+        <v>3.52576142314679</v>
       </c>
     </row>
     <row r="4">
@@ -1857,19 +2166,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>23.52941176470588</v>
+        <v>27.45098039215686</v>
       </c>
       <c r="C4">
-        <v>85.71428571428571</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D4">
         <v>51</v>
       </c>
       <c r="E4">
-        <v>0.005339878280917807</v>
+        <v>0.004819334998419911</v>
       </c>
       <c r="F4">
-        <v>2.785781923303661</v>
+        <v>2.818867882689708</v>
       </c>
     </row>
     <row r="5">
@@ -1879,151 +2188,151 @@
         </is>
       </c>
       <c r="B5">
-        <v>29.03225806451613</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="C5">
-        <v>64.28571428571429</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5">
-        <v>0.007079422140135087</v>
+        <v>0.01078321839291077</v>
       </c>
       <c r="F5">
-        <v>2.693084983636834</v>
+        <v>2.549646536469976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=1</t>
+          <t>X25x1_ElvAlterChoiPers=0</t>
         </is>
       </c>
       <c r="B6">
-        <v>23.80952380952381</v>
+        <v>25.53191489361702</v>
       </c>
       <c r="C6">
-        <v>71.42857142857143</v>
+        <v>70.58823529411765</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>0.02100337985105882</v>
+        <v>0.03767975176999547</v>
       </c>
       <c r="F6">
-        <v>2.307923713890649</v>
+        <v>2.078321562194837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>X06x1_gene_majo_1_rec=1</t>
+          <t>T10_PS_EauDebi_3=1</t>
         </is>
       </c>
       <c r="B7">
-        <v>17.28395061728395</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="D7">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>0.04126306116000863</v>
+        <v>0.04509054608714382</v>
       </c>
       <c r="F7">
-        <v>2.040876932815146</v>
+        <v>2.00380879748684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>X06x1_gene_majo_1_rec=0</t>
+          <t>X07x1_AN_CONST4_mean_3=1</t>
         </is>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>0.04126306116000863</v>
+        <v>0.04106662250449936</v>
       </c>
       <c r="F8">
-        <v>-2.040876932815146</v>
+        <v>-2.042856732824892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=0</t>
+          <t>y=ENG_malade</t>
         </is>
       </c>
       <c r="B9">
-        <v>4.761904761904762</v>
+        <v>7.5</v>
       </c>
       <c r="C9">
-        <v>14.28571428571428</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>0.02383487026961809</v>
+        <v>0.04016510587076571</v>
       </c>
       <c r="F9">
-        <v>-2.259780612169937</v>
+        <v>-2.052046887728036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>X07x1_AN_CONST4_mean_3=1</t>
+          <t>X25x1_ElvAlterChoiPers=1</t>
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>0.01268833785318498</v>
+        <v>0.03767975176999549</v>
       </c>
       <c r="F10">
-        <v>-2.492399091959187</v>
+        <v>-2.078321562194836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>y=ENG_malade</t>
+          <t>T10_PS_EauDebi_3=0</t>
         </is>
       </c>
       <c r="B11">
-        <v>2.5</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="C11">
-        <v>7.142857142857142</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>0.005462390466029398</v>
+        <v>0.02628318642585154</v>
       </c>
       <c r="F11">
-        <v>-2.778420342399503</v>
+        <v>-2.222001763444923</v>
       </c>
     </row>
     <row r="12">
@@ -2033,372 +2342,63 @@
         </is>
       </c>
       <c r="B12">
-        <v>4.081632653061225</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="C12">
-        <v>14.28571428571428</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D12">
         <v>49</v>
       </c>
       <c r="E12">
-        <v>0.005339878280917807</v>
+        <v>0.004819334998419912</v>
       </c>
       <c r="F12">
-        <v>-2.785781923303661</v>
+        <v>-2.818867882689708</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=1</t>
+          <t>X19x2_ABB_E=1</t>
         </is>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="E13">
-        <v>0.0001313675853563623</v>
+        <v>0.0004222671843910003</v>
       </c>
       <c r="F13">
-        <v>-3.823880534594273</v>
+        <v>-3.52576142314679</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=1</t>
+          <t>X18x2_ABBTX_PS=1</t>
         </is>
       </c>
       <c r="B14">
-        <v>1.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>56.99999999999999</v>
+        <v>44</v>
       </c>
       <c r="E14">
-        <v>5.073078449137394E-05</v>
+        <v>1.473617236555638E-05</v>
       </c>
       <c r="F14">
-        <v>-4.052234474148898</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cla/Mod</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mod/Cla</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p.value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>v.test</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>y=PS_malade</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>38.70967741935484</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>3.315250320582766E-05</v>
-      </c>
-      <c r="F2">
-        <v>4.150655093067986</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>X18x2_ABBTX_PS=1</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>0.00299152518444452</v>
-      </c>
-      <c r="F3">
-        <v>2.968607422014104</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=1</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>45</v>
-      </c>
-      <c r="E4">
-        <v>0.00390936752623039</v>
-      </c>
-      <c r="F4">
-        <v>2.885383796858688</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>X06x1_gene_majo_1_rec=1</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>81</v>
-      </c>
-      <c r="E5">
-        <v>0.03214680346186717</v>
-      </c>
-      <c r="F5">
-        <v>2.142580436358246</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>X12x2_MAT_PC=2</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>20.63492063492063</v>
-      </c>
-      <c r="C6">
-        <v>86.66666666666667</v>
-      </c>
-      <c r="D6">
-        <v>63</v>
-      </c>
-      <c r="E6">
-        <v>0.03940537872894717</v>
-      </c>
-      <c r="F6">
-        <v>2.05992847837561</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>X07x1_AN_CONST4_mean_3=0</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="C7">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>0.04752878386096662</v>
-      </c>
-      <c r="F7">
-        <v>-1.981557535542503</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>X12x2_MAT_PC=1</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>5.405405405405405</v>
-      </c>
-      <c r="C8">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>0.03940537872894719</v>
-      </c>
-      <c r="F8">
-        <v>-2.05992847837561</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>X06x1_gene_majo_1_rec=0</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0.03214680346186717</v>
-      </c>
-      <c r="F9">
-        <v>-2.142580436358246</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>X12x2_MAT1FRLAV_1=1</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="C10">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10">
-        <v>0.01006356809150925</v>
-      </c>
-      <c r="F10">
-        <v>-2.573637395333334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=0</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>5.454545454545454</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.003909367526230388</v>
-      </c>
-      <c r="F11">
-        <v>-2.88538379685869</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>y=Sain</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>0.003610720647738941</v>
-      </c>
-      <c r="F12">
-        <v>-2.910308583071963</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>X18x2_ABBTX_PS=0</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>5.357142857142857</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.00299152518444452</v>
-      </c>
-      <c r="F13">
-        <v>-2.968607422014104</v>
+        <v>-4.332595475816769</v>
       </c>
     </row>
   </sheetData>
